--- a/src/test/resources/zoopla_UK_data.xlsx
+++ b/src/test/resources/zoopla_UK_data.xlsx
@@ -69,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +355,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,30 +372,31 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>